--- a/Approximationen/HP Kosten.xlsx
+++ b/Approximationen/HP Kosten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_288034BD527FA432523FA046A90AD9C395AFD448" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{391D5272-DFBC-403F-BA3F-AAEF6A6FBB6E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_288034BD527FA432523FA046A90AD9C395AFD448" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9E8CB83D-EC74-4FAC-AE97-08C075303B88}"/>
   <bookViews>
     <workbookView xWindow="4185" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -992,7 +992,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1603,7 @@
   <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1985,7 @@
         <v>4000</v>
       </c>
       <c r="N22">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">

--- a/Approximationen/HP Kosten.xlsx
+++ b/Approximationen/HP Kosten.xlsx
@@ -1308,7 +1308,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="5996609"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">

--- a/Approximationen/HP Kosten.xlsx
+++ b/Approximationen/HP Kosten.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_288034BD527FA432523FA046A90AD9C395AFD448" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9E8CB83D-EC74-4FAC-AE97-08C075303B88}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_288034BD527FA432523FA046A90AD9C395AFD448" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D41051D2-5156-4ED8-BE77-14774E7D3211}"/>
   <bookViews>
     <workbookView xWindow="4185" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,6 +58,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -963,36 +964,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$M$20:$M$22</c:f>
+              <c:f>Tabelle1!$M$20:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$N$20:$N$22</c:f>
+              <c:f>Tabelle1!$N$20:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,6 +1008,57 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DA4-4A3E-B282-D56C75EBF969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>4000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$22:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$22:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C152-471D-99A5-C0B0FD602115}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,7 +1077,7 @@
         <c:axId val="79125120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1228,8 +1286,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1342662424997608"/>
           <c:y val="6.3966384475154056E-2"/>
-          <c:w val="0.21186760659988796"/>
-          <c:h val="0.19362220351514858"/>
+          <c:w val="0.21263297772263656"/>
+          <c:h val="0.24202775439393573"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1602,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,10 +2025,10 @@
         <v>27.606963316929697</v>
       </c>
       <c r="M21">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1982,10 +2040,10 @@
         <v>30.851153607512718</v>
       </c>
       <c r="M22">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="N22">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,6 +2056,12 @@
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="M23">
+        <v>2000</v>
+      </c>
+      <c r="N23">
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/Approximationen/HP Kosten.xlsx
+++ b/Approximationen/HP Kosten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="20" documentId="11_288034BD527FA432523FA046A90AD9C395AFD448" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D41051D2-5156-4ED8-BE77-14774E7D3211}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,6 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
